--- a/data extraction /lit search metadata /old metadata files /scopus_405_screened_abs.xlsx
+++ b/data extraction /lit search metadata /old metadata files /scopus_405_screened_abs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4A3B11C2-15C1-C24A-835F-09544A38D28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1BF2FCAB-375D-9346-A880-A829374E8A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-17740" windowWidth="23720" windowHeight="15160"/>
+    <workbookView xWindow="28800" yWindow="-23880" windowWidth="23720" windowHeight="15160"/>
   </bookViews>
   <sheets>
     <sheet name="scopus_405" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3970" uniqueCount="1898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4085" uniqueCount="1927">
   <si>
     <t>label</t>
   </si>
@@ -5350,6 +5350,9 @@
     <t>no fluctuating trt</t>
   </si>
   <si>
+    <t>pulse press</t>
+  </si>
+  <si>
     <t>pulse press, heat stress</t>
   </si>
   <si>
@@ -5717,6 +5720,90 @@
   </si>
   <si>
     <t>looks like it has constant and flux trts but food availability is also a trt</t>
+  </si>
+  <si>
+    <t>fig 2</t>
+  </si>
+  <si>
+    <t>full analysis, though it uses the word acclimation….</t>
+  </si>
+  <si>
+    <t>constant before exposure to flux but constant not maintained</t>
+  </si>
+  <si>
+    <t>no flux trt, maybe good for a different study of acclimation to different constant temps</t>
+  </si>
+  <si>
+    <t>observational, no constant trt</t>
+  </si>
+  <si>
+    <t>no constant or flux trt (just field vs lab), maybe good for a different study of acclimation to different constant temps</t>
+  </si>
+  <si>
+    <t>no flux trt, human test subjects</t>
+  </si>
+  <si>
+    <t>observational, ambient variation</t>
+  </si>
+  <si>
+    <t>no trts, ambient variation/observation</t>
+  </si>
+  <si>
+    <t>table 1 full, fig 1 acclimation</t>
+  </si>
+  <si>
+    <t>figure 1-3</t>
+  </si>
+  <si>
+    <t>modeling</t>
+  </si>
+  <si>
+    <t>relevant for examples of how mean and variability affect respone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planted in situ, though acclimated in lab </t>
+  </si>
+  <si>
+    <t>no flux trt, ambient temp variation</t>
+  </si>
+  <si>
+    <t>relevant for case study of ambient temp variation</t>
+  </si>
+  <si>
+    <t>pulse press no constant trt</t>
+  </si>
+  <si>
+    <t>book…?</t>
+  </si>
+  <si>
+    <t>in situ, ambient flux</t>
+  </si>
+  <si>
+    <t>observational, ambient variation, modeling</t>
+  </si>
+  <si>
+    <t>observational, modelling</t>
+  </si>
+  <si>
+    <t>maybe full analysis, and pulse press?</t>
+  </si>
+  <si>
+    <t>not in english</t>
+  </si>
+  <si>
+    <t>observational, no relevant data</t>
+  </si>
+  <si>
+    <t>microbiota in sludge, it seems like they have a paired set of experiments but unclear…</t>
+  </si>
+  <si>
+    <t>no constant, just dropping to different minima</t>
+  </si>
+  <si>
+    <t>no flux trt, just ramping up to Ctmax until no heartbeat</t>
+  </si>
+  <si>
+    <t>extreme heat events, pulse press</t>
   </si>
 </sst>
 </file>
@@ -6586,8 +6673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="D155" sqref="D155"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A189" sqref="A189:XFD189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7517,7 +7604,7 @@
         <v>1757</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
@@ -7842,7 +7929,7 @@
         <v>1757</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
@@ -7907,7 +7994,7 @@
         <v>1757</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
@@ -7972,7 +8059,7 @@
         <v>1757</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="22" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -8037,7 +8124,7 @@
         <v>1757</v>
       </c>
       <c r="W22" s="6" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="23" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -8099,13 +8186,13 @@
         <v>1758</v>
       </c>
       <c r="T23" s="6" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="V23" s="7" t="s">
         <v>1757</v>
       </c>
       <c r="W23" s="6" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -8170,7 +8257,7 @@
         <v>1757</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
@@ -8235,7 +8322,7 @@
         <v>1757</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
@@ -8300,7 +8387,7 @@
         <v>1757</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
@@ -8365,7 +8452,7 @@
         <v>1757</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
@@ -8430,7 +8517,7 @@
         <v>1757</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="29" spans="1:23" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -8489,13 +8576,13 @@
         <v>1758</v>
       </c>
       <c r="S29" s="6" t="s">
+        <v>1789</v>
+      </c>
+      <c r="V29" s="7" t="s">
+        <v>1757</v>
+      </c>
+      <c r="W29" s="6" t="s">
         <v>1788</v>
-      </c>
-      <c r="V29" s="7" t="s">
-        <v>1757</v>
-      </c>
-      <c r="W29" s="6" t="s">
-        <v>1787</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -8560,7 +8647,7 @@
         <v>1757</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -8625,7 +8712,7 @@
         <v>1757</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
@@ -8690,7 +8777,7 @@
         <v>1757</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
@@ -8755,7 +8842,7 @@
         <v>1757</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
@@ -8888,7 +8975,7 @@
         <v>1757</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
@@ -8953,7 +9040,7 @@
         <v>1757</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
@@ -9018,7 +9105,7 @@
         <v>1757</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
@@ -9083,7 +9170,7 @@
         <v>1757</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -9148,7 +9235,7 @@
         <v>1757</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
@@ -9213,7 +9300,7 @@
         <v>1757</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="41" spans="1:24" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -9275,13 +9362,13 @@
         <v>1758</v>
       </c>
       <c r="T41" s="6" t="s">
+        <v>1801</v>
+      </c>
+      <c r="V41" s="7" t="s">
+        <v>1757</v>
+      </c>
+      <c r="W41" s="6" t="s">
         <v>1800</v>
-      </c>
-      <c r="V41" s="7" t="s">
-        <v>1757</v>
-      </c>
-      <c r="W41" s="6" t="s">
-        <v>1799</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
@@ -9346,10 +9433,10 @@
         <v>1757</v>
       </c>
       <c r="W42" s="2" t="s">
+        <v>1803</v>
+      </c>
+      <c r="X42" s="2" t="s">
         <v>1802</v>
-      </c>
-      <c r="X42" s="2" t="s">
-        <v>1801</v>
       </c>
     </row>
     <row r="43" spans="1:24" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -9408,13 +9495,13 @@
         <v>1758</v>
       </c>
       <c r="S43" s="6" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="V43" s="7" t="s">
         <v>1757</v>
       </c>
       <c r="W43" s="6" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
@@ -9479,7 +9566,7 @@
         <v>1757</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
@@ -9544,7 +9631,7 @@
         <v>1757</v>
       </c>
       <c r="W45" s="2" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="46" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -9606,13 +9693,13 @@
         <v>1758</v>
       </c>
       <c r="T46" s="6" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="V46" s="7" t="s">
         <v>1757</v>
       </c>
       <c r="W46" s="6" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
@@ -9677,7 +9764,7 @@
         <v>1757</v>
       </c>
       <c r="W47" s="2" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
@@ -9742,10 +9829,10 @@
         <v>1757</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="X48" s="2" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
@@ -9810,7 +9897,7 @@
         <v>1757</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -9875,7 +9962,7 @@
         <v>1757</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
@@ -9940,7 +10027,7 @@
         <v>1757</v>
       </c>
       <c r="W51" s="2" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
@@ -10005,7 +10092,7 @@
         <v>1757</v>
       </c>
       <c r="W52" s="2" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="53" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -10064,13 +10151,13 @@
         <v>1758</v>
       </c>
       <c r="S53" s="6" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="V53" s="7" t="s">
         <v>1757</v>
       </c>
       <c r="W53" s="6" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
@@ -10135,7 +10222,7 @@
         <v>1757</v>
       </c>
       <c r="W54" s="2" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
@@ -10200,7 +10287,7 @@
         <v>1757</v>
       </c>
       <c r="W55" s="2" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="56" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -10259,13 +10346,13 @@
         <v>1758</v>
       </c>
       <c r="S56" s="6" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="V56" s="7" t="s">
         <v>1757</v>
       </c>
       <c r="W56" s="6" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
@@ -10460,7 +10547,7 @@
         <v>1757</v>
       </c>
       <c r="W59" s="2" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.2">
@@ -10525,7 +10612,7 @@
         <v>1757</v>
       </c>
       <c r="W60" s="2" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
@@ -10590,7 +10677,7 @@
         <v>1757</v>
       </c>
       <c r="W61" s="2" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">
@@ -10655,7 +10742,7 @@
         <v>1757</v>
       </c>
       <c r="W62" s="2" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.2">
@@ -10720,7 +10807,7 @@
         <v>1757</v>
       </c>
       <c r="W63" s="2" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.2">
@@ -10785,7 +10872,7 @@
         <v>1757</v>
       </c>
       <c r="W64" s="2" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
@@ -10850,7 +10937,7 @@
         <v>1757</v>
       </c>
       <c r="W65" s="2" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
@@ -10915,7 +11002,7 @@
         <v>1757</v>
       </c>
       <c r="W66" s="2" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
@@ -10980,7 +11067,7 @@
         <v>1757</v>
       </c>
       <c r="W67" s="2" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
@@ -11045,7 +11132,7 @@
         <v>1757</v>
       </c>
       <c r="W68" s="2" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="69" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -11104,13 +11191,13 @@
         <v>1758</v>
       </c>
       <c r="S69" s="6" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="V69" s="7" t="s">
         <v>1757</v>
       </c>
       <c r="W69" s="6" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="70" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -11169,13 +11256,13 @@
         <v>1758</v>
       </c>
       <c r="S70" s="6" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="V70" s="7" t="s">
         <v>1757</v>
       </c>
       <c r="W70" s="6" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.2">
@@ -11240,10 +11327,10 @@
         <v>1757</v>
       </c>
       <c r="W71" s="2" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="X71" s="2" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.2">
@@ -11308,7 +11395,7 @@
         <v>1757</v>
       </c>
       <c r="W72" s="2" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.2">
@@ -11373,7 +11460,7 @@
         <v>1757</v>
       </c>
       <c r="W73" s="2" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.2">
@@ -11438,7 +11525,7 @@
         <v>1757</v>
       </c>
       <c r="W74" s="2" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.2">
@@ -11503,7 +11590,7 @@
         <v>1757</v>
       </c>
       <c r="W75" s="2" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.2">
@@ -11568,7 +11655,7 @@
         <v>1757</v>
       </c>
       <c r="W76" s="2" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.2">
@@ -11633,10 +11720,10 @@
         <v>1757</v>
       </c>
       <c r="W77" s="2" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="X77" s="2" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="78" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -11698,13 +11785,13 @@
         <v>1758</v>
       </c>
       <c r="T78" s="6" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="V78" s="7" t="s">
         <v>1757</v>
       </c>
       <c r="W78" s="6" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -11769,10 +11856,10 @@
         <v>1757</v>
       </c>
       <c r="W79" s="2" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="X79" s="2" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.2">
@@ -11837,7 +11924,7 @@
         <v>1757</v>
       </c>
       <c r="W80" s="2" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.2">
@@ -11902,7 +11989,7 @@
         <v>1757</v>
       </c>
       <c r="W81" s="2" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.2">
@@ -11967,10 +12054,10 @@
         <v>1757</v>
       </c>
       <c r="W82" s="2" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="X82" s="2" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
@@ -12035,7 +12122,7 @@
         <v>1757</v>
       </c>
       <c r="W83" s="2" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="84" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -12094,13 +12181,13 @@
         <v>1758</v>
       </c>
       <c r="S84" s="6" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="V84" s="7" t="s">
         <v>1757</v>
       </c>
       <c r="W84" s="6" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.2">
@@ -12165,7 +12252,7 @@
         <v>1757</v>
       </c>
       <c r="W85" s="2" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.2">
@@ -12230,7 +12317,7 @@
         <v>1757</v>
       </c>
       <c r="W86" s="2" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.2">
@@ -12295,7 +12382,7 @@
         <v>1757</v>
       </c>
       <c r="W87" s="2" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.2">
@@ -12360,7 +12447,7 @@
         <v>1757</v>
       </c>
       <c r="W88" s="2" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.2">
@@ -12425,7 +12512,7 @@
         <v>1757</v>
       </c>
       <c r="W89" s="2" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.2">
@@ -12490,7 +12577,7 @@
         <v>1757</v>
       </c>
       <c r="W90" s="2" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="91" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -12552,7 +12639,7 @@
         <v>1758</v>
       </c>
       <c r="T91" s="6" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="V91" s="7" t="s">
         <v>1757</v>
@@ -12620,7 +12707,7 @@
         <v>1757</v>
       </c>
       <c r="W92" s="2" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.2">
@@ -12685,7 +12772,7 @@
         <v>1757</v>
       </c>
       <c r="W93" s="2" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.2">
@@ -12815,7 +12902,7 @@
         <v>1757</v>
       </c>
       <c r="W95" s="2" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.2">
@@ -12880,7 +12967,7 @@
         <v>1757</v>
       </c>
       <c r="W96" s="2" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.2">
@@ -12945,7 +13032,7 @@
         <v>1757</v>
       </c>
       <c r="W97" s="2" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.2">
@@ -13010,7 +13097,7 @@
         <v>1757</v>
       </c>
       <c r="W98" s="2" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -13075,7 +13162,7 @@
         <v>1757</v>
       </c>
       <c r="W99" s="2" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.2">
@@ -13140,7 +13227,7 @@
         <v>1757</v>
       </c>
       <c r="W100" s="2" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.2">
@@ -13205,7 +13292,7 @@
         <v>1757</v>
       </c>
       <c r="W101" s="2" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.2">
@@ -13270,7 +13357,7 @@
         <v>1757</v>
       </c>
       <c r="W102" s="2" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.2">
@@ -13335,7 +13422,7 @@
         <v>1757</v>
       </c>
       <c r="W103" s="2" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.2">
@@ -13400,7 +13487,7 @@
         <v>1757</v>
       </c>
       <c r="W104" s="2" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="105" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -13462,7 +13549,7 @@
         <v>1758</v>
       </c>
       <c r="T105" s="6" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="V105" s="7" t="s">
         <v>1757</v>
@@ -13530,7 +13617,7 @@
         <v>1757</v>
       </c>
       <c r="W106" s="2" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="107" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -13592,13 +13679,13 @@
         <v>1758</v>
       </c>
       <c r="T107" s="6" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="V107" s="7" t="s">
         <v>1757</v>
       </c>
       <c r="W107" s="6" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="108" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -13657,13 +13744,13 @@
         <v>1758</v>
       </c>
       <c r="S108" s="6" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="V108" s="7" t="s">
         <v>1757</v>
       </c>
       <c r="W108" s="6" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.2">
@@ -13728,7 +13815,7 @@
         <v>1757</v>
       </c>
       <c r="W109" s="2" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="110" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -13793,7 +13880,7 @@
         <v>1757</v>
       </c>
       <c r="W110" s="2" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.2">
@@ -13858,7 +13945,7 @@
         <v>1757</v>
       </c>
       <c r="W111" s="2" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.2">
@@ -13923,7 +14010,7 @@
         <v>1757</v>
       </c>
       <c r="W112" s="2" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="113" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -14118,7 +14205,7 @@
         <v>1757</v>
       </c>
       <c r="W115" s="2" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="116" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -14180,7 +14267,7 @@
         <v>1758</v>
       </c>
       <c r="T116" s="6" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="V116" s="7" t="s">
         <v>1757</v>
@@ -14242,7 +14329,7 @@
         <v>1757</v>
       </c>
       <c r="W117" s="1" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.2">
@@ -14307,7 +14394,7 @@
         <v>1757</v>
       </c>
       <c r="W118" s="2" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.2">
@@ -14372,7 +14459,7 @@
         <v>1757</v>
       </c>
       <c r="W119" s="2" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.2">
@@ -14437,10 +14524,10 @@
         <v>1757</v>
       </c>
       <c r="W120" s="2" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="X120" s="2" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.2">
@@ -14505,10 +14592,10 @@
         <v>1757</v>
       </c>
       <c r="W121" s="2" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="X121" s="2" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.2">
@@ -14573,7 +14660,7 @@
         <v>1757</v>
       </c>
       <c r="W122" s="2" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.2">
@@ -14638,7 +14725,7 @@
         <v>1757</v>
       </c>
       <c r="W123" s="2" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.2">
@@ -14768,7 +14855,7 @@
         <v>1757</v>
       </c>
       <c r="W125" s="2" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.2">
@@ -14833,10 +14920,10 @@
         <v>1757</v>
       </c>
       <c r="W126" s="2" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="X126" s="2" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.2">
@@ -14901,7 +14988,7 @@
         <v>1757</v>
       </c>
       <c r="W127" s="2" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.2">
@@ -14966,7 +15053,7 @@
         <v>1757</v>
       </c>
       <c r="W128" s="2" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.2">
@@ -15031,7 +15118,7 @@
         <v>1757</v>
       </c>
       <c r="W129" s="2" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.2">
@@ -15096,7 +15183,7 @@
         <v>1757</v>
       </c>
       <c r="W130" s="2" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.2">
@@ -15161,7 +15248,7 @@
         <v>1757</v>
       </c>
       <c r="W131" s="2" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.2">
@@ -15226,7 +15313,7 @@
         <v>1757</v>
       </c>
       <c r="W132" s="2" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="133" spans="1:23" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -15288,13 +15375,13 @@
         <v>1758</v>
       </c>
       <c r="T133" s="6" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="V133" s="7" t="s">
         <v>1757</v>
       </c>
       <c r="W133" s="6" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.2">
@@ -15359,7 +15446,7 @@
         <v>1757</v>
       </c>
       <c r="W134" s="2" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.2">
@@ -15424,7 +15511,7 @@
         <v>1757</v>
       </c>
       <c r="W135" s="2" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.2">
@@ -15489,7 +15576,7 @@
         <v>1757</v>
       </c>
       <c r="W136" s="2" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="137" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -15551,7 +15638,7 @@
         <v>1758</v>
       </c>
       <c r="T137" s="6" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="V137" s="7" t="s">
         <v>1757</v>
@@ -15619,7 +15706,7 @@
         <v>1757</v>
       </c>
       <c r="W138" s="2" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.2">
@@ -15684,7 +15771,7 @@
         <v>1757</v>
       </c>
       <c r="W139" s="2" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.2">
@@ -15749,7 +15836,7 @@
         <v>1757</v>
       </c>
       <c r="W140" s="2" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="141" spans="1:23" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -15811,13 +15898,13 @@
         <v>1758</v>
       </c>
       <c r="T141" s="6" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="V141" s="7" t="s">
         <v>1757</v>
       </c>
       <c r="W141" s="6" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.2">
@@ -15882,7 +15969,7 @@
         <v>1757</v>
       </c>
       <c r="W142" s="2" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.2">
@@ -15947,7 +16034,7 @@
         <v>1757</v>
       </c>
       <c r="W143" s="2" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.2">
@@ -16012,7 +16099,7 @@
         <v>1757</v>
       </c>
       <c r="W144" s="2" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="145" spans="1:24" x14ac:dyDescent="0.2">
@@ -16077,10 +16164,10 @@
         <v>1757</v>
       </c>
       <c r="W145" s="2" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="X145" s="2" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="146" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -16139,16 +16226,16 @@
         <v>1758</v>
       </c>
       <c r="S146" s="6" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="T146" s="6" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="V146" s="7" t="s">
         <v>1757</v>
       </c>
       <c r="W146" s="6" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="147" spans="1:24" x14ac:dyDescent="0.2">
@@ -16213,10 +16300,10 @@
         <v>1757</v>
       </c>
       <c r="W147" s="2" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="X147" s="2" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="148" spans="1:24" ht="19" customHeight="1" x14ac:dyDescent="0.2">
@@ -16281,7 +16368,7 @@
         <v>1757</v>
       </c>
       <c r="W148" s="2" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="149" spans="1:24" x14ac:dyDescent="0.2">
@@ -16346,7 +16433,7 @@
         <v>1757</v>
       </c>
       <c r="W149" s="2" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="150" spans="1:24" x14ac:dyDescent="0.2">
@@ -16411,66 +16498,78 @@
         <v>1757</v>
       </c>
       <c r="W150" s="2" t="s">
-        <v>1844</v>
-      </c>
-    </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A151" s="2" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C151" s="2" t="s">
+      <c r="B151" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="D151" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="E151" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="F151" s="2">
+      <c r="F151" s="6">
         <v>2020</v>
       </c>
-      <c r="G151" s="2">
+      <c r="G151" s="6">
         <v>223</v>
       </c>
-      <c r="H151" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I151" s="2" t="s">
+      <c r="H151" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I151" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="J151" s="2" t="s">
+      <c r="J151" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K151" s="2" t="s">
+      <c r="K151" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="L151" s="2" t="s">
+      <c r="L151" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="M151" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N151" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O151" s="2">
+      <c r="M151" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N151" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O151" s="6">
         <v>23</v>
       </c>
-      <c r="P151" s="2" t="s">
+      <c r="P151" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q151" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V151" s="5" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Q151" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R151" s="6" t="s">
+        <v>1758</v>
+      </c>
+      <c r="S151" s="6" t="s">
+        <v>1758</v>
+      </c>
+      <c r="T151" s="6" t="s">
+        <v>1899</v>
+      </c>
+      <c r="V151" s="7" t="s">
+        <v>1757</v>
+      </c>
+      <c r="W151" s="6" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>1430</v>
       </c>
@@ -16522,8 +16621,17 @@
       <c r="Q152" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="R152" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S152" s="2" t="s">
+        <v>1757</v>
+      </c>
       <c r="V152" s="5" t="s">
         <v>1757</v>
+      </c>
+      <c r="W152" s="2" t="s">
+        <v>1845</v>
       </c>
     </row>
     <row r="153" spans="1:24" x14ac:dyDescent="0.2">
@@ -16578,119 +16686,134 @@
       <c r="Q153" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="R153" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S153" s="2" t="s">
+        <v>1757</v>
+      </c>
       <c r="V153" s="5" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="s">
+      <c r="W153" s="2" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C154" s="2" t="s">
+      <c r="B154" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="D154" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="E154" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="F154" s="2">
+      <c r="F154" s="6">
         <v>2018</v>
       </c>
-      <c r="G154" s="2">
+      <c r="G154" s="6">
         <v>191</v>
       </c>
-      <c r="H154" s="2" t="s">
+      <c r="H154" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="I154" s="2" t="s">
+      <c r="I154" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="J154" s="2" t="s">
+      <c r="J154" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="K154" s="2" t="s">
+      <c r="K154" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="L154" s="2" t="s">
+      <c r="L154" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="M154" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N154" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O154" s="2">
+      <c r="M154" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N154" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O154" s="6">
         <v>3</v>
       </c>
-      <c r="P154" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q154" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V154" s="5" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A155" s="2" t="s">
+      <c r="P154" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q154" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R154" s="6" t="s">
+        <v>1758</v>
+      </c>
+      <c r="S154" s="6" t="s">
+        <v>1789</v>
+      </c>
+      <c r="V154" s="7" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
         <v>1706</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C155" s="2" t="s">
+      <c r="B155" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>1707</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="D155" s="1" t="s">
         <v>1708</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="E155" s="1" t="s">
         <v>1578</v>
       </c>
-      <c r="F155" s="2">
+      <c r="F155" s="1">
         <v>2012</v>
       </c>
-      <c r="G155" s="2">
+      <c r="G155" s="1">
         <v>23</v>
       </c>
-      <c r="H155" s="2" t="s">
+      <c r="H155" s="1" t="s">
         <v>1709</v>
       </c>
-      <c r="I155" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J155" s="2" t="s">
+      <c r="I155" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J155" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K155" s="2" t="s">
+      <c r="K155" s="1" t="s">
         <v>1710</v>
       </c>
-      <c r="L155" s="2" t="s">
+      <c r="L155" s="1" t="s">
         <v>1711</v>
       </c>
-      <c r="M155" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N155" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O155" s="2">
+      <c r="M155" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N155" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O155" s="1">
         <v>9</v>
       </c>
-      <c r="P155" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q155" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V155" s="5" t="s">
+      <c r="P155" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q155" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V155" s="3" t="s">
         <v>1757</v>
       </c>
     </row>
@@ -16746,8 +16869,17 @@
       <c r="Q156" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="R156" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S156" s="2" t="s">
+        <v>1757</v>
+      </c>
       <c r="V156" s="5" t="s">
         <v>1757</v>
+      </c>
+      <c r="W156" s="2" t="s">
+        <v>1783</v>
       </c>
     </row>
     <row r="157" spans="1:24" x14ac:dyDescent="0.2">
@@ -16802,8 +16934,17 @@
       <c r="Q157" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="R157" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S157" s="2" t="s">
+        <v>1757</v>
+      </c>
       <c r="V157" s="5" t="s">
         <v>1757</v>
+      </c>
+      <c r="W157" s="2" t="s">
+        <v>1902</v>
       </c>
     </row>
     <row r="158" spans="1:24" x14ac:dyDescent="0.2">
@@ -16858,8 +16999,17 @@
       <c r="Q158" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="R158" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S158" s="2" t="s">
+        <v>1757</v>
+      </c>
       <c r="V158" s="5" t="s">
         <v>1757</v>
+      </c>
+      <c r="W158" s="2" t="s">
+        <v>1818</v>
       </c>
     </row>
     <row r="159" spans="1:24" x14ac:dyDescent="0.2">
@@ -16914,11 +17064,20 @@
       <c r="Q159" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="R159" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S159" s="2" t="s">
+        <v>1757</v>
+      </c>
       <c r="V159" s="5" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W159" s="2" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>938</v>
       </c>
@@ -16970,11 +17129,20 @@
       <c r="Q160" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="R160" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S160" s="2" t="s">
+        <v>1757</v>
+      </c>
       <c r="V160" s="5" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W160" s="2" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>703</v>
       </c>
@@ -17026,11 +17194,20 @@
       <c r="Q161" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="R161" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S161" s="2" t="s">
+        <v>1757</v>
+      </c>
       <c r="V161" s="5" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W161" s="2" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>1254</v>
       </c>
@@ -17082,11 +17259,20 @@
       <c r="Q162" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="R162" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S162" s="2" t="s">
+        <v>1757</v>
+      </c>
       <c r="V162" s="5" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W162" s="2" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>1247</v>
       </c>
@@ -17138,11 +17324,20 @@
       <c r="Q163" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="R163" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S163" s="2" t="s">
+        <v>1757</v>
+      </c>
       <c r="V163" s="5" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W163" s="2" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>1213</v>
       </c>
@@ -17194,67 +17389,85 @@
       <c r="Q164" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="R164" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S164" s="2" t="s">
+        <v>1757</v>
+      </c>
       <c r="V164" s="5" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A165" s="2" t="s">
+      <c r="W164" s="2" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="6" t="s">
         <v>1082</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C165" s="2" t="s">
+      <c r="B165" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C165" s="6" t="s">
         <v>1083</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="D165" s="6" t="s">
         <v>1084</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="E165" s="6" t="s">
         <v>784</v>
       </c>
-      <c r="F165" s="2">
+      <c r="F165" s="6">
         <v>2019</v>
       </c>
-      <c r="G165" s="2">
+      <c r="G165" s="6">
         <v>118</v>
       </c>
-      <c r="H165" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I165" s="2" t="s">
+      <c r="H165" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I165" s="6" t="s">
         <v>1085</v>
       </c>
-      <c r="J165" s="2" t="s">
+      <c r="J165" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="K165" s="2" t="s">
+      <c r="K165" s="6" t="s">
         <v>1086</v>
       </c>
-      <c r="L165" s="2" t="s">
+      <c r="L165" s="6" t="s">
         <v>1087</v>
       </c>
-      <c r="M165" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N165" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O165" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P165" s="2">
+      <c r="M165" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N165" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O165" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P165" s="6">
         <v>103935</v>
       </c>
-      <c r="Q165" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V165" s="2" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Q165" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R165" s="6" t="s">
+        <v>1758</v>
+      </c>
+      <c r="S165" s="6" t="s">
+        <v>1789</v>
+      </c>
+      <c r="V165" s="6" t="s">
+        <v>1757</v>
+      </c>
+      <c r="W165" s="6" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>1139</v>
       </c>
@@ -17306,11 +17519,20 @@
       <c r="Q166" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="R166" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S166" s="2" t="s">
+        <v>1757</v>
+      </c>
       <c r="V166" s="2" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W166" s="2" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>1190</v>
       </c>
@@ -17362,123 +17584,150 @@
       <c r="Q167" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="R167" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S167" s="2" t="s">
+        <v>1757</v>
+      </c>
       <c r="V167" s="2" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A168" s="2" t="s">
+      <c r="W167" s="2" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C168" s="2" t="s">
+      <c r="B168" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C168" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="D168" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="E168" s="2" t="s">
+      <c r="E168" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="F168" s="2">
+      <c r="F168" s="6">
         <v>2009</v>
       </c>
-      <c r="G168" s="2">
+      <c r="G168" s="6">
         <v>33</v>
       </c>
-      <c r="H168" s="2" t="s">
+      <c r="H168" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="I168" s="2" t="s">
+      <c r="I168" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="J168" s="2" t="s">
+      <c r="J168" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="K168" s="2" t="s">
+      <c r="K168" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="L168" s="2" t="s">
+      <c r="L168" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="M168" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N168" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O168" s="2">
+      <c r="M168" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N168" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O168" s="6">
         <v>3</v>
       </c>
-      <c r="P168" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q168" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V168" s="2" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A169" s="2" t="s">
+      <c r="P168" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q168" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R168" s="6" t="s">
+        <v>1758</v>
+      </c>
+      <c r="S168" s="6" t="s">
+        <v>1758</v>
+      </c>
+      <c r="T168" s="6" t="s">
+        <v>1908</v>
+      </c>
+      <c r="V168" s="6" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C169" s="2" t="s">
+      <c r="B169" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C169" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="D169" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="E169" s="2" t="s">
+      <c r="E169" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="F169" s="2">
+      <c r="F169" s="6">
         <v>2020</v>
       </c>
-      <c r="G169" s="2">
+      <c r="G169" s="6">
         <v>243</v>
       </c>
-      <c r="H169" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I169" s="2" t="s">
+      <c r="H169" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I169" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="J169" s="2" t="s">
+      <c r="J169" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="K169" s="2" t="s">
+      <c r="K169" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="L169" s="2" t="s">
+      <c r="L169" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="M169" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N169" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O169" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P169" s="2">
+      <c r="M169" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N169" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O169" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P169" s="6">
         <v>125369</v>
       </c>
-      <c r="Q169" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V169" s="2" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Q169" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R169" s="6" t="s">
+        <v>1758</v>
+      </c>
+      <c r="S169" s="6" t="s">
+        <v>1758</v>
+      </c>
+      <c r="T169" s="6" t="s">
+        <v>1909</v>
+      </c>
+      <c r="V169" s="6" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>452</v>
       </c>
@@ -17530,11 +17779,23 @@
       <c r="Q170" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="R170" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S170" s="2" t="s">
+        <v>1757</v>
+      </c>
       <c r="V170" s="2" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W170" s="2" t="s">
+        <v>1910</v>
+      </c>
+      <c r="X170" s="2" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>988</v>
       </c>
@@ -17586,11 +17847,20 @@
       <c r="Q171" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="R171" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S171" s="2" t="s">
+        <v>1757</v>
+      </c>
       <c r="V171" s="2" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W171" s="2" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>856</v>
       </c>
@@ -17642,11 +17912,20 @@
       <c r="Q172" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="R172" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S172" s="2" t="s">
+        <v>1757</v>
+      </c>
       <c r="V172" s="2" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W172" s="2" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>251</v>
       </c>
@@ -17698,11 +17977,20 @@
       <c r="Q173" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="R173" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S173" s="2" t="s">
+        <v>1757</v>
+      </c>
       <c r="V173" s="2" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W173" s="2" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>344</v>
       </c>
@@ -17754,67 +18042,82 @@
       <c r="Q174" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="R174" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S174" s="2" t="s">
+        <v>1757</v>
+      </c>
       <c r="V174" s="2" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A175" s="2" t="s">
+      <c r="W174" s="2" t="s">
+        <v>1913</v>
+      </c>
+      <c r="X174" s="2" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C175" s="2" t="s">
+      <c r="B175" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="D175" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="E175" s="2" t="s">
+      <c r="E175" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="F175" s="2">
+      <c r="F175" s="1">
         <v>2000</v>
       </c>
-      <c r="G175" s="2">
+      <c r="G175" s="1">
         <v>517</v>
       </c>
-      <c r="H175" s="2" t="s">
+      <c r="H175" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="I175" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J175" s="2" t="s">
+      <c r="I175" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J175" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K175" s="2" t="s">
+      <c r="K175" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="L175" s="2" t="s">
+      <c r="L175" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="N175" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O175" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P175" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q175" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V175" s="2" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="N175" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O175" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P175" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q175" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V175" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="W175" s="1" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>233</v>
       </c>
@@ -17866,11 +18169,20 @@
       <c r="Q176" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="R176" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S176" s="2" t="s">
+        <v>1757</v>
+      </c>
       <c r="V176" s="2" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W176" s="2" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>604</v>
       </c>
@@ -17922,11 +18234,20 @@
       <c r="Q177" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="R177" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S177" s="2" t="s">
+        <v>1757</v>
+      </c>
       <c r="V177" s="2" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W177" s="2" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>203</v>
       </c>
@@ -17978,11 +18299,20 @@
       <c r="Q178" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="R178" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S178" s="2" t="s">
+        <v>1757</v>
+      </c>
       <c r="V178" s="2" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W178" s="2" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>509</v>
       </c>
@@ -18034,11 +18364,20 @@
       <c r="Q179" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="R179" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S179" s="2" t="s">
+        <v>1757</v>
+      </c>
       <c r="V179" s="2" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W179" s="2" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>1228</v>
       </c>
@@ -18090,67 +18429,88 @@
       <c r="Q180" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="R180" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S180" s="2" t="s">
+        <v>1757</v>
+      </c>
       <c r="V180" s="2" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A181" s="2" t="s">
+      <c r="W180" s="2" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C181" s="2" t="s">
+      <c r="B181" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C181" s="6" t="s">
         <v>806</v>
       </c>
-      <c r="D181" s="2" t="s">
+      <c r="D181" s="6" t="s">
         <v>807</v>
       </c>
-      <c r="E181" s="2" t="s">
+      <c r="E181" s="6" t="s">
         <v>808</v>
       </c>
-      <c r="F181" s="2">
+      <c r="F181" s="6">
         <v>2020</v>
       </c>
-      <c r="G181" s="2">
+      <c r="G181" s="6">
         <v>42</v>
       </c>
-      <c r="H181" s="2" t="s">
+      <c r="H181" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="I181" s="2" t="s">
+      <c r="I181" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="J181" s="2" t="s">
+      <c r="J181" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="K181" s="2" t="s">
+      <c r="K181" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="L181" s="2" t="s">
+      <c r="L181" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="M181" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N181" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O181" s="2">
+      <c r="M181" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N181" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O181" s="6">
         <v>3</v>
       </c>
-      <c r="P181" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q181" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V181" s="2" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P181" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q181" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R181" s="6" t="s">
+        <v>1758</v>
+      </c>
+      <c r="S181" s="6" t="s">
+        <v>1789</v>
+      </c>
+      <c r="T181" s="6" t="s">
+        <v>1887</v>
+      </c>
+      <c r="V181" s="6" t="s">
+        <v>1757</v>
+      </c>
+      <c r="W181" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>1262</v>
       </c>
@@ -18202,67 +18562,85 @@
       <c r="Q182" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="R182" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S182" s="2" t="s">
+        <v>1757</v>
+      </c>
       <c r="V182" s="2" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A183" s="2" t="s">
+      <c r="W182" s="2" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="6" t="s">
         <v>1720</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C183" s="2" t="s">
+      <c r="B183" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C183" s="6" t="s">
         <v>1721</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="D183" s="6" t="s">
         <v>1722</v>
       </c>
-      <c r="E183" s="2" t="s">
+      <c r="E183" s="6" t="s">
         <v>1693</v>
       </c>
-      <c r="F183" s="2">
+      <c r="F183" s="6">
         <v>2012</v>
       </c>
-      <c r="G183" s="2">
+      <c r="G183" s="6">
         <v>105</v>
       </c>
-      <c r="H183" s="2" t="s">
+      <c r="H183" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="I183" s="2" t="s">
+      <c r="I183" s="6" t="s">
         <v>1723</v>
       </c>
-      <c r="J183" s="2" t="s">
+      <c r="J183" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="K183" s="2" t="s">
+      <c r="K183" s="6" t="s">
         <v>1724</v>
       </c>
-      <c r="L183" s="2" t="s">
+      <c r="L183" s="6" t="s">
         <v>1725</v>
       </c>
-      <c r="M183" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N183" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O183" s="2">
+      <c r="M183" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N183" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O183" s="6">
         <v>1</v>
       </c>
-      <c r="P183" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q183" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V183" s="2" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P183" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q183" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R183" s="6" t="s">
+        <v>1758</v>
+      </c>
+      <c r="S183" s="6" t="s">
+        <v>1789</v>
+      </c>
+      <c r="V183" s="6" t="s">
+        <v>1757</v>
+      </c>
+      <c r="W183" s="6" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>1575</v>
       </c>
@@ -18314,11 +18692,20 @@
       <c r="Q184" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="R184" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S184" s="2" t="s">
+        <v>1757</v>
+      </c>
       <c r="V184" s="2" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W184" s="2" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>553</v>
       </c>
@@ -18370,67 +18757,85 @@
       <c r="Q185" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="R185" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S185" s="2" t="s">
+        <v>1757</v>
+      </c>
       <c r="V185" s="2" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A186" s="2" t="s">
+      <c r="W185" s="2" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C186" s="2" t="s">
+      <c r="B186" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C186" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D186" s="2" t="s">
+      <c r="D186" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E186" s="2" t="s">
+      <c r="E186" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F186" s="2">
+      <c r="F186" s="6">
         <v>2018</v>
       </c>
-      <c r="G186" s="2">
+      <c r="G186" s="6">
         <v>636</v>
       </c>
-      <c r="H186" s="2" t="s">
+      <c r="H186" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I186" s="2" t="s">
+      <c r="I186" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J186" s="2" t="s">
+      <c r="J186" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K186" s="2" t="s">
+      <c r="K186" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L186" s="2" t="s">
+      <c r="L186" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M186" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N186" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O186" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P186" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q186" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V186" s="2" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="M186" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N186" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O186" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P186" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q186" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R186" s="6" t="s">
+        <v>1758</v>
+      </c>
+      <c r="S186" s="6" t="s">
+        <v>1789</v>
+      </c>
+      <c r="V186" s="6" t="s">
+        <v>1757</v>
+      </c>
+      <c r="W186" s="6" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>850</v>
       </c>
@@ -18482,11 +18887,20 @@
       <c r="Q187" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="R187" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S187" s="2" t="s">
+        <v>1757</v>
+      </c>
       <c r="V187" s="2" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W187" s="2" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>789</v>
       </c>
@@ -18538,67 +18952,85 @@
       <c r="Q188" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="R188" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S188" s="2" t="s">
+        <v>1757</v>
+      </c>
       <c r="V188" s="2" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A189" s="2" t="s">
+      <c r="W188" s="2" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="6" t="s">
         <v>878</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C189" s="2" t="s">
+      <c r="B189" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C189" s="6" t="s">
         <v>879</v>
       </c>
-      <c r="D189" s="2" t="s">
+      <c r="D189" s="6" t="s">
         <v>880</v>
       </c>
-      <c r="E189" s="2" t="s">
+      <c r="E189" s="6" t="s">
         <v>784</v>
       </c>
-      <c r="F189" s="2">
+      <c r="F189" s="6">
         <v>2019</v>
       </c>
-      <c r="G189" s="2">
+      <c r="G189" s="6">
         <v>112</v>
       </c>
-      <c r="H189" s="2" t="s">
+      <c r="H189" s="6" t="s">
         <v>881</v>
       </c>
-      <c r="I189" s="2" t="s">
+      <c r="I189" s="6" t="s">
         <v>882</v>
       </c>
-      <c r="J189" s="2" t="s">
+      <c r="J189" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="K189" s="2" t="s">
+      <c r="K189" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="L189" s="2" t="s">
+      <c r="L189" s="6" t="s">
         <v>884</v>
       </c>
-      <c r="M189" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N189" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O189" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P189" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q189" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V189" s="2" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="M189" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N189" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O189" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P189" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q189" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R189" s="6" t="s">
+        <v>1758</v>
+      </c>
+      <c r="S189" s="6" t="s">
+        <v>1789</v>
+      </c>
+      <c r="V189" s="6" t="s">
+        <v>1757</v>
+      </c>
+      <c r="W189" s="6" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>328</v>
       </c>
@@ -18651,10 +19083,10 @@
         <v>32</v>
       </c>
       <c r="V190" s="2" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>275</v>
       </c>
@@ -18710,7 +19142,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>375</v>
       </c>
